--- a/table/Sample.xlsx
+++ b/table/Sample.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\CSHYEON\Data\git\game\c#\osd\design\converter\sample\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\CSHYEON\Data\git\tool\python\table\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22AF0E29-656D-4538-9CD5-A8E08A35B655}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60F1ABE4-D957-41F5-8496-129A605EF764}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{06217CED-4DF5-4D94-BA86-0432B863CDFE}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{BB2F5856-9C3A-4FD9-9335-F401F0663D4E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sample" sheetId="1" r:id="rId1"/>
-    <sheet name="Sample.1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sample2" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,92 +25,349 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>채승현</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{8D82EA43-992E-4643-9D81-6790C68C6644}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>채승현</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>ㅋㅋ</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{1EC0AFE1-C288-430F-B15B-64E2B1FC7F9C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>채승현</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>ㅋㅋ</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{1F489185-C41E-4B4E-9735-B370FF4F79A7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>채승현</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>ㅋㅋ</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{7CA93DC1-39DC-4435-84F2-9BDC28D723D6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>채승현</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>ㅋㅋ</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{5A3CA001-41D0-4FA0-BC1E-13F7F02DFF29}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>채승현</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>ㅋㅋ</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="29">
+  <si>
+    <t>*string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>common</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GroupKey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GroupField1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GroupField2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MemberField1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MemberField2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MemberField3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>멤버값1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>멤버값2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그룹키3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그룹키4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 곳은 주석입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#응애</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#ㅎㅎ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#ㅋㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>*string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>common</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이디.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이디.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이디.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Value1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Value2</t>
+    <t>*int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>굿1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>굿2</t>
+  </si>
+  <si>
+    <t>굿3</t>
+  </si>
+  <si>
+    <t>굿4</t>
+  </si>
+  <si>
+    <t>굿5</t>
+  </si>
+  <si>
+    <t>GroupField3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>int?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>server</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Value3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[string]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>안녕 &amp; 하세요 &amp; 여러분</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Value4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{int:string}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0:ㅋ
-1:ㅋㅋ
-2:ㅋㅋㅋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이디.4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이디.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이디.6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>client</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -122,7 +379,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -138,13 +395,56 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -161,12 +461,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -174,6 +477,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF00FF00"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -481,223 +789,540 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{842F009F-133C-4BB3-A1B5-B7250D1CBAC3}">
-  <dimension ref="A1:E6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8757095B-F91A-41EF-B2A4-668074BE45D4}">
+  <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.125" customWidth="1"/>
+    <col min="6" max="8" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>11</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F14" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" t="s">
+        <v>9</v>
+      </c>
+      <c r="H15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6">
-        <v>3</v>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F20" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F21" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F22" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" t="s">
+        <v>10</v>
+      </c>
+      <c r="H22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F23" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23" t="s">
+        <v>10</v>
+      </c>
+      <c r="H23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F24" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" t="s">
+        <v>10</v>
+      </c>
+      <c r="H24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F25" t="s">
+        <v>10</v>
+      </c>
+      <c r="G25" t="s">
+        <v>10</v>
+      </c>
+      <c r="H25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F26" t="s">
+        <v>10</v>
+      </c>
+      <c r="G26" t="s">
+        <v>10</v>
+      </c>
+      <c r="H26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F27" t="s">
+        <v>10</v>
+      </c>
+      <c r="G27" t="s">
+        <v>10</v>
+      </c>
+      <c r="H27" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F28" t="s">
+        <v>10</v>
+      </c>
+      <c r="G28" t="s">
+        <v>10</v>
+      </c>
+      <c r="H28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F29" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29" t="s">
+        <v>10</v>
+      </c>
+      <c r="H29" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F30" t="s">
+        <v>10</v>
+      </c>
+      <c r="G30" t="s">
+        <v>10</v>
+      </c>
+      <c r="H30" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F31" t="s">
+        <v>10</v>
+      </c>
+      <c r="G31" t="s">
+        <v>10</v>
+      </c>
+      <c r="H31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F32" t="s">
+        <v>10</v>
+      </c>
+      <c r="G32" t="s">
+        <v>10</v>
+      </c>
+      <c r="H32" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F33" t="s">
+        <v>10</v>
+      </c>
+      <c r="G33" t="s">
+        <v>10</v>
+      </c>
+      <c r="H33" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F34" t="s">
+        <v>10</v>
+      </c>
+      <c r="G34" t="s">
+        <v>10</v>
+      </c>
+      <c r="H34" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F35" t="s">
+        <v>10</v>
+      </c>
+      <c r="G35" t="s">
+        <v>10</v>
+      </c>
+      <c r="H35" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29202E81-9336-4017-A450-DEAC0FF67502}">
-  <dimension ref="A1:E6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8717C227-57F9-4268-BE1C-2AFD26217033}">
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.375" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>100</v>
+      </c>
+      <c r="C4">
+        <v>100</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>18</v>
-      </c>
       <c r="B5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>19</v>
+        <v>100</v>
+      </c>
+      <c r="C5">
+        <v>100</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>3</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>100</v>
+      </c>
+      <c r="C7">
+        <v>100</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>100</v>
+      </c>
+      <c r="C8">
+        <v>100</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>